--- a/data/meta_data/plate8_setup_final.xlsx
+++ b/data/meta_data/plate8_setup_final.xlsx
@@ -5,12 +5,12 @@
   <workbookPr dateCompatibility="0" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Begum/Dropbox/GLNE_07_Preservation/data/meta_data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Begum/Documents/Preservation_Bias/data/process/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{F3EFD0BA-8FB2-BE4E-AAF6-15C87ED727B9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{D71E2C22-C9E5-9D4E-80A7-9CC75F8B5C6F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3120" yWindow="4480" windowWidth="28040" windowHeight="17440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="11580" yWindow="5460" windowWidth="28040" windowHeight="17440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="plate8_setup_final" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" count="295" uniqueCount="114">
+<sst xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" count="298" uniqueCount="114">
   <si>
     <t>sample_ID</t>
   </si>
@@ -1475,8 +1475,8 @@
 <worksheet xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships" xmlns:v="urn:schemas-microsoft-com:vml" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I94"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="G1" sqref="G1:G1048576"/>
+    <sheetView tabSelected="1" topLeftCell="B66" workbookViewId="0">
+      <selection activeCell="G94" sqref="G94"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3596,6 +3596,9 @@
       <c r="F92">
         <v>14</v>
       </c>
+      <c r="G92" t="s">
+        <v>109</v>
+      </c>
     </row>
     <row r="93" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A93">
@@ -3616,6 +3619,9 @@
       <c r="F93">
         <v>14</v>
       </c>
+      <c r="G93" t="s">
+        <v>110</v>
+      </c>
     </row>
     <row r="94" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A94">
@@ -3635,6 +3641,9 @@
       </c>
       <c r="F94">
         <v>14</v>
+      </c>
+      <c r="G94" t="s">
+        <v>111</v>
       </c>
     </row>
   </sheetData>
@@ -3652,7 +3661,7 @@
   </sheetPr>
   <dimension ref="A1:M9"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="A10" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
